--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_8_20.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_8_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17261.94046899848</v>
+        <v>-3254.217945888635</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17297070.25717501</v>
+        <v>16628357.41382743</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484444</v>
+        <v>492028.9342484448</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8612194.745763015</v>
+        <v>8663549.941907223</v>
       </c>
     </row>
     <row r="11">
@@ -662,16 +662,16 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>200.2539906153543</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>302.4587103517675</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -817,25 +817,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>86.10103612447385</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>235.1610987765677</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -877,10 +877,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -896,16 +896,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>45.10878876340928</v>
       </c>
       <c r="Y5" t="n">
-        <v>224.3800274480205</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>2.087451961952754</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>119.8634463900538</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>92.24160738587864</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>309.4482338529297</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1297,10 +1297,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>1.679535649715253</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1309,7 +1309,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>5.990622819018782</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>304.6878864943856</v>
       </c>
       <c r="C11" t="n">
-        <v>9.383280932190019</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1382,7 +1382,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>69.45405731752537</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1543,7 +1543,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225728</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791313668</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1780,10 +1780,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>31.24391673888146</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>67.45240452680002</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1895,7 +1895,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556927</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2011,16 +2011,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225873</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>253.4167637250794</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>50.30825486907145</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2254,7 +2254,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>122.9742767430571</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2491,10 +2491,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2542,7 +2542,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>102.6974459740352</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2621,7 +2621,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633422</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2728,7 +2728,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T28" t="n">
-        <v>190.4707957071072</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2779,7 +2779,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2953,7 +2953,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>24.62703520776708</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>50.30825486907162</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3439,10 +3439,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3484,7 +3484,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>250.9868479540253</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>421.5835062384838</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.307979546836</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.097618435725</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>428.9839288517128</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.1356867533094</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>396.9307845213938</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>285.785784469641</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.36228653642645</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4134863141169</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.1770111145784</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.5377120239368</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.3538315015021</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.4979702449075</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>403.7501939217682</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.4473639902223</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.3830258600324</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>163.7661443289176</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>33.82131719051364</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.4869149562864</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.4822936828557</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.0500840249543</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.32028119149651</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>20.75057454010692</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.1958864734084</v>
+        <v>18.0567773522574</v>
       </c>
       <c r="T40" t="n">
-        <v>242.9675834157544</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.1956021978508</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>283.6328845066989</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>268.8530718279965</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.6924054374579</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>421.5835062384837</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.307979546836</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.0976184357249</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>428.9839288517128</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.1356867533094</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>396.9307845213938</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>285.7857844696409</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.36228653642638</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4134863141168</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U41" t="n">
-        <v>256.1770111145783</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.5377120239368</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.353831501502</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.4979702449074</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>403.7501939217681</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.3830258600323</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>163.7661443289176</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>167.6073551701951</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.4869149562864</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.4822936828556</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.0500840249543</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.32028119149643</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.1958864734083</v>
+        <v>18.05677735225785</v>
       </c>
       <c r="T43" t="n">
-        <v>242.9675834157543</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.1956021978507</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>117.5600164790006</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>268.8530718279964</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.4847685783467</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.6924054374578</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>421.5835062384837</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.307979546836</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.0976184357249</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>428.9839288517128</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.1356867533094</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>396.9307845213938</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>285.7857844696409</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.36228653642638</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4134863141168</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.1770111145783</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.5377120239368</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.353831501502</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.4979702449074</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>403.7501939217681</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.4473639902223</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.3830258600323</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>163.7661443289176</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>167.6073551701951</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>73.41171059610986</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.4822936828556</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.0500840249543</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.32028119149643</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>20.75057454010686</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.1958864734083</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T46" t="n">
-        <v>242.9675834157543</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>283.6328845066989</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>268.8530718279964</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.4847685783467</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.6924054374578</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1353.493304866897</v>
+        <v>1546.553422129643</v>
       </c>
       <c r="C2" t="n">
-        <v>1319.391236090724</v>
+        <v>1512.45135335347</v>
       </c>
       <c r="D2" t="n">
-        <v>890.8095618279922</v>
+        <v>1310.174595156143</v>
       </c>
       <c r="E2" t="n">
-        <v>462.2278875652606</v>
+        <v>876.3998503144381</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>448.5324207236459</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>47.13458934690974</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>47.13458934690974</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>46.71779997404975</v>
       </c>
       <c r="J2" t="n">
-        <v>267.8706684926505</v>
+        <v>481.9724874269676</v>
       </c>
       <c r="K2" t="n">
-        <v>267.8706684926505</v>
+        <v>481.9724874269676</v>
       </c>
       <c r="L2" t="n">
-        <v>267.8706684926505</v>
+        <v>481.9724874269676</v>
       </c>
       <c r="M2" t="n">
-        <v>267.8706684926505</v>
+        <v>481.9724874269676</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>481.9724874269676</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1042.10437331197</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1620.237147990836</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2166.735933949431</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2335.889998702487</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2252.238124886324</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2252.238124886324</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1993.015822203341</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1993.015822203341</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1992.200771654779</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>1977.098712274493</v>
       </c>
       <c r="Y2" t="n">
-        <v>1375.7524713114</v>
+        <v>1568.812588574147</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>1178.821982214972</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>1072.365521051614</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>977.275232198167</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>883.1548175251207</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>799.7709791412824</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>714.3858894074663</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>672.6502372236787</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>698.7139103841363</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>1023.272235350349</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1601.405010029214</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1601.405010029214</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1601.405010029214</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1601.405010029214</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1601.405010029214</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1677.978281976072</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>2218.717220608148</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>2335.889998702487</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>2272.434561150871</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>2142.255917481472</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1965.919370481441</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1766.80185254344</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>1581.479098276634</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>1426.611662515514</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>1300.125883294735</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>286.5056871358553</v>
+        <v>820.2825113021333</v>
       </c>
       <c r="C4" t="n">
-        <v>286.5056871358553</v>
+        <v>647.7207997853583</v>
       </c>
       <c r="D4" t="n">
-        <v>286.5056871358553</v>
+        <v>481.8428069868809</v>
       </c>
       <c r="E4" t="n">
-        <v>286.5056871358553</v>
+        <v>312.0848032376182</v>
       </c>
       <c r="F4" t="n">
-        <v>286.5056871358553</v>
+        <v>135.3777491993744</v>
       </c>
       <c r="G4" t="n">
-        <v>120.9144121616829</v>
+        <v>135.3777491993744</v>
       </c>
       <c r="H4" t="n">
-        <v>120.9144121616829</v>
+        <v>135.3777491993744</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>46.71779997404975</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>46.71779997404975</v>
       </c>
       <c r="K4" t="n">
-        <v>308.7021231727439</v>
+        <v>248.7613033998456</v>
       </c>
       <c r="L4" t="n">
-        <v>308.7021231727439</v>
+        <v>666.9711851678067</v>
       </c>
       <c r="M4" t="n">
-        <v>509.954387939391</v>
+        <v>1126.45505234872</v>
       </c>
       <c r="N4" t="n">
-        <v>930.0072868842942</v>
+        <v>1568.713855506364</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>1988.383104732146</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2335.889998702487</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2335.889998702487</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2314.472177407859</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>2314.472177407859</v>
       </c>
       <c r="T4" t="n">
-        <v>1516.524240083786</v>
+        <v>2076.935713997185</v>
       </c>
       <c r="U4" t="n">
-        <v>1238.091239336891</v>
+        <v>1798.50271325029</v>
       </c>
       <c r="V4" t="n">
-        <v>951.1357312073217</v>
+        <v>1511.547205120721</v>
       </c>
       <c r="W4" t="n">
-        <v>951.1357312073217</v>
+        <v>1239.520800707012</v>
       </c>
       <c r="X4" t="n">
-        <v>705.7439765407341</v>
+        <v>1239.520800707012</v>
       </c>
       <c r="Y4" t="n">
-        <v>478.3243058548424</v>
+        <v>1012.101130021121</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>944.6683834787607</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C5" t="n">
-        <v>516.086709216029</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>267.8706684926505</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>1612.716505715692</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X5" t="n">
-        <v>1597.614446335406</v>
+        <v>2623.681342788512</v>
       </c>
       <c r="Y5" t="n">
-        <v>1370.967953963669</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>205.8102096861769</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>203.7016723508711</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>203.7016723508711</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>705.2562847857771</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>433.2298803720686</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>433.2298803720686</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>205.8102096861769</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>442.640221925911</v>
+        <v>1331.865744460759</v>
       </c>
       <c r="C8" t="n">
-        <v>408.5381531497384</v>
+        <v>1297.763675684586</v>
       </c>
       <c r="D8" t="n">
-        <v>376.668772364587</v>
+        <v>1204.590334890769</v>
       </c>
       <c r="E8" t="n">
-        <v>346.9344315632862</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F8" t="n">
-        <v>34.36045797446834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G8" t="n">
-        <v>34.36045797446834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>857.0776321906106</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1277.130531135514</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W8" t="n">
-        <v>1292.327975491451</v>
+        <v>2181.553498026298</v>
       </c>
       <c r="X8" t="n">
-        <v>873.1855120707613</v>
+        <v>1762.411034605609</v>
       </c>
       <c r="Y8" t="n">
-        <v>464.8993883704147</v>
+        <v>1758.165314945667</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>679.5733228569366</v>
+        <v>1049.85056207581</v>
       </c>
       <c r="C10" t="n">
-        <v>507.0116113401615</v>
+        <v>877.2888505590353</v>
       </c>
       <c r="D10" t="n">
-        <v>341.1336185416842</v>
+        <v>711.410857760558</v>
       </c>
       <c r="E10" t="n">
-        <v>339.4371178854062</v>
+        <v>541.6528540112952</v>
       </c>
       <c r="F10" t="n">
-        <v>339.4371178854062</v>
+        <v>364.9457999730514</v>
       </c>
       <c r="G10" t="n">
-        <v>173.8458429112338</v>
+        <v>199.3545249988791</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>59.45235068925359</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1292.259348259376</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.765608785789</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T10" t="n">
-        <v>1675.765608785789</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>1675.765608785789</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>1388.81010065622</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="W10" t="n">
-        <v>1116.783696242511</v>
+        <v>1714.480606147277</v>
       </c>
       <c r="X10" t="n">
-        <v>871.3919415759237</v>
+        <v>1469.088851480689</v>
       </c>
       <c r="Y10" t="n">
-        <v>871.3919415759237</v>
+        <v>1241.669180794798</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2077.934775800413</v>
+        <v>2105.402761916395</v>
       </c>
       <c r="C11" t="n">
-        <v>2068.456714252745</v>
+        <v>1667.260289099818</v>
       </c>
       <c r="D11" t="n">
-        <v>1632.54692942719</v>
+        <v>1231.350504274263</v>
       </c>
       <c r="E11" t="n">
-        <v>1198.772184585485</v>
+        <v>797.5757594325579</v>
       </c>
       <c r="F11" t="n">
-        <v>770.9047549946929</v>
+        <v>369.7083298417656</v>
       </c>
       <c r="G11" t="n">
-        <v>369.5069236179568</v>
+        <v>369.7083298417656</v>
       </c>
       <c r="H11" t="n">
-        <v>80.37676906117308</v>
+        <v>80.57817528498184</v>
       </c>
       <c r="I11" t="n">
-        <v>79.95997968831308</v>
+        <v>80.16138591212184</v>
       </c>
       <c r="J11" t="n">
-        <v>515.214667141231</v>
+        <v>80.16138591212184</v>
       </c>
       <c r="K11" t="n">
-        <v>515.214667141231</v>
+        <v>80.16138591212184</v>
       </c>
       <c r="L11" t="n">
-        <v>1504.719415784105</v>
+        <v>80.16138591212184</v>
       </c>
       <c r="M11" t="n">
-        <v>1504.719415784105</v>
+        <v>491.9297528282302</v>
       </c>
       <c r="N11" t="n">
-        <v>2302.166467133697</v>
+        <v>1483.926903490738</v>
       </c>
       <c r="O11" t="n">
-        <v>3282.346133704003</v>
+        <v>2464.106570061044</v>
       </c>
       <c r="P11" t="n">
-        <v>3282.346133704003</v>
+        <v>3292.41644489444</v>
       </c>
       <c r="Q11" t="n">
-        <v>3828.844919662598</v>
+        <v>3838.915230853035</v>
       </c>
       <c r="R11" t="n">
-        <v>3997.998984415654</v>
+        <v>4008.069295606092</v>
       </c>
       <c r="S11" t="n">
-        <v>3914.347110599491</v>
+        <v>4008.069295606092</v>
       </c>
       <c r="T11" t="n">
-        <v>3694.27988347253</v>
+        <v>4008.069295606092</v>
       </c>
       <c r="U11" t="n">
-        <v>3694.27988347253</v>
+        <v>4008.069295606092</v>
       </c>
       <c r="V11" t="n">
-        <v>3331.662933406356</v>
+        <v>3645.452345539918</v>
       </c>
       <c r="W11" t="n">
-        <v>3331.662933406356</v>
+        <v>3240.596890950952</v>
       </c>
       <c r="X11" t="n">
-        <v>2912.520469985667</v>
+        <v>2821.454427530263</v>
       </c>
       <c r="Y11" t="n">
-        <v>2504.23434628532</v>
+        <v>2413.168303829916</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>586.1317246796059</v>
+        <v>586.3331309034146</v>
       </c>
       <c r="C12" t="n">
-        <v>479.6752635162482</v>
+        <v>479.8766697400569</v>
       </c>
       <c r="D12" t="n">
-        <v>384.5849746628014</v>
+        <v>384.7863808866102</v>
       </c>
       <c r="E12" t="n">
-        <v>290.4645599897551</v>
+        <v>290.6659662135639</v>
       </c>
       <c r="F12" t="n">
-        <v>207.0807216059167</v>
+        <v>207.2821278297255</v>
       </c>
       <c r="G12" t="n">
-        <v>121.6956318721006</v>
+        <v>121.8970380959094</v>
       </c>
       <c r="H12" t="n">
-        <v>79.95997968831308</v>
+        <v>80.16138591212184</v>
       </c>
       <c r="I12" t="n">
-        <v>106.0236528487707</v>
+        <v>106.2250590725794</v>
       </c>
       <c r="J12" t="n">
-        <v>430.581977814983</v>
+        <v>430.7833840387918</v>
       </c>
       <c r="K12" t="n">
-        <v>1085.288024440707</v>
+        <v>1085.489430664515</v>
       </c>
       <c r="L12" t="n">
-        <v>1085.288024440707</v>
+        <v>1085.489430664515</v>
       </c>
       <c r="M12" t="n">
-        <v>1085.288024440707</v>
+        <v>1085.489430664515</v>
       </c>
       <c r="N12" t="n">
-        <v>1085.288024440707</v>
+        <v>1085.489430664515</v>
       </c>
       <c r="O12" t="n">
-        <v>1085.288024440707</v>
+        <v>1085.489430664515</v>
       </c>
       <c r="P12" t="n">
-        <v>1085.288024440707</v>
+        <v>1085.489430664515</v>
       </c>
       <c r="Q12" t="n">
-        <v>1626.026963072782</v>
+        <v>1626.228369296591</v>
       </c>
       <c r="R12" t="n">
-        <v>1743.199741167122</v>
+        <v>1743.401147390931</v>
       </c>
       <c r="S12" t="n">
-        <v>1679.744303615505</v>
+        <v>1679.945709839314</v>
       </c>
       <c r="T12" t="n">
-        <v>1549.565659946107</v>
+        <v>1549.767066169915</v>
       </c>
       <c r="U12" t="n">
-        <v>1373.229112946075</v>
+        <v>1373.430519169884</v>
       </c>
       <c r="V12" t="n">
-        <v>1174.111595008074</v>
+        <v>1174.313001231883</v>
       </c>
       <c r="W12" t="n">
-        <v>988.7888407412684</v>
+        <v>988.9902469650769</v>
       </c>
       <c r="X12" t="n">
-        <v>833.9214049801483</v>
+        <v>834.122811203957</v>
       </c>
       <c r="Y12" t="n">
-        <v>707.435625759369</v>
+        <v>707.6370319831777</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>930.4560167652444</v>
+        <v>1070.559597298679</v>
       </c>
       <c r="C13" t="n">
-        <v>757.8943052484693</v>
+        <v>897.9978857819036</v>
       </c>
       <c r="D13" t="n">
-        <v>592.016312449992</v>
+        <v>732.1198929834263</v>
       </c>
       <c r="E13" t="n">
-        <v>422.2583087007293</v>
+        <v>562.3618892341635</v>
       </c>
       <c r="F13" t="n">
-        <v>245.5512546624854</v>
+        <v>385.6548351959196</v>
       </c>
       <c r="G13" t="n">
-        <v>79.95997968831308</v>
+        <v>220.0635602217473</v>
       </c>
       <c r="H13" t="n">
-        <v>79.95997968831308</v>
+        <v>80.16138591212184</v>
       </c>
       <c r="I13" t="n">
-        <v>79.95997968831308</v>
+        <v>80.16138591212184</v>
       </c>
       <c r="J13" t="n">
-        <v>166.5396648530029</v>
+        <v>166.7410710768117</v>
       </c>
       <c r="K13" t="n">
-        <v>441.2981194241385</v>
+        <v>441.4995256479473</v>
       </c>
       <c r="L13" t="n">
-        <v>859.5080011920996</v>
+        <v>859.7094074159083</v>
       </c>
       <c r="M13" t="n">
-        <v>1318.991868373013</v>
+        <v>1319.193274596821</v>
       </c>
       <c r="N13" t="n">
-        <v>1761.250671530657</v>
+        <v>1761.452077754466</v>
       </c>
       <c r="O13" t="n">
-        <v>2180.919920756438</v>
+        <v>2181.121326980247</v>
       </c>
       <c r="P13" t="n">
-        <v>2528.42681472678</v>
+        <v>2528.628220950589</v>
       </c>
       <c r="Q13" t="n">
-        <v>2696.619589591113</v>
+        <v>2696.820995814921</v>
       </c>
       <c r="R13" t="n">
-        <v>2696.619589591113</v>
+        <v>2696.820995814921</v>
       </c>
       <c r="S13" t="n">
-        <v>2678.380420548428</v>
+        <v>2696.820995814921</v>
       </c>
       <c r="T13" t="n">
-        <v>2432.500974126884</v>
+        <v>2450.941549393377</v>
       </c>
       <c r="U13" t="n">
-        <v>2154.067973379989</v>
+        <v>2172.508548646482</v>
       </c>
       <c r="V13" t="n">
-        <v>1867.11246525042</v>
+        <v>1885.553040516912</v>
       </c>
       <c r="W13" t="n">
-        <v>1595.086060836711</v>
+        <v>1613.526636103204</v>
       </c>
       <c r="X13" t="n">
-        <v>1349.694306170123</v>
+        <v>1368.134881436616</v>
       </c>
       <c r="Y13" t="n">
-        <v>1122.274635484232</v>
+        <v>1140.715210750725</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436401</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5282,46 +5282,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="M14" t="n">
-        <v>2588.899621423627</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5358,19 +5358,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
         <v>1107.588885023173</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>811.7546776883918</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C16" t="n">
-        <v>811.7546776883918</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>645.8766848899145</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>476.1186811406518</v>
+        <v>673.1212928181458</v>
       </c>
       <c r="F16" t="n">
-        <v>299.411627102408</v>
+        <v>496.414238779902</v>
       </c>
       <c r="G16" t="n">
-        <v>133.8203521282356</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>133.8203521282356</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5443,7 +5443,7 @@
         <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1341.29272895548</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
         <v>1783.551532113124</v>
@@ -5464,22 +5464,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2313.799635050031</v>
+        <v>2491.545339525313</v>
       </c>
       <c r="U16" t="n">
-        <v>2035.366634303136</v>
+        <v>2213.112338778418</v>
       </c>
       <c r="V16" t="n">
-        <v>1748.411126173567</v>
+        <v>1926.156830648849</v>
       </c>
       <c r="W16" t="n">
-        <v>1476.384721759858</v>
+        <v>1654.13042623514</v>
       </c>
       <c r="X16" t="n">
-        <v>1230.992967093271</v>
+        <v>1408.738671568552</v>
       </c>
       <c r="Y16" t="n">
-        <v>1003.573296407379</v>
+        <v>1181.319000882661</v>
       </c>
     </row>
     <row r="17">
@@ -5504,7 +5504,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5522,25 +5522,25 @@
         <v>1371.865819681875</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.16863798718</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
         <v>4809.322912595856</v>
@@ -5558,7 +5558,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5595,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>1004.611946844417</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309358</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324585</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831958</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5674,49 +5674,49 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066081</v>
       </c>
       <c r="L19" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745691</v>
       </c>
       <c r="M19" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955482</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338906</v>
+        <v>2203.220781338908</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309248</v>
+        <v>2550.72767530925</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.92045017358</v>
+        <v>2697.502628878954</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176951</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755406</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2036.405284740174</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>1749.449776610605</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1477.423372196896</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1232.031617530309</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1004.611946844417</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
         <v>1654.847790009657</v>
@@ -5738,10 +5738,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771602</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5759,40 +5759,40 @@
         <v>1371.865819681875</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.16863798718</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
         <v>2955.199618136697</v>
@@ -5832,22 +5832,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
         <v>1648.327823655249</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C22" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5935,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2594.704009018976</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2316.271008272081</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>2029.315500142511</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W22" t="n">
-        <v>1757.289095728803</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1511.897341062215</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y22" t="n">
-        <v>1284.477670376323</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,13 +5996,13 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>3417.209496257023</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
         <v>4397.38916282733</v>
@@ -6026,13 +6026,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6151,13 +6151,13 @@
         <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745659</v>
       </c>
       <c r="M25" t="n">
         <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O25" t="n">
         <v>2203.220781338905</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2559.679081471576</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2281.246080724681</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1994.290572595111</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1722.264168181403</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1476.872413514815</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C26" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D26" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E26" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H26" t="n">
         <v>102.6776296436396</v>
@@ -6224,16 +6224,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6254,22 +6254,22 @@
         <v>5029.390139722817</v>
       </c>
       <c r="T26" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U26" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V26" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X26" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
-        <v>287.8657185439749</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O27" t="n">
-        <v>287.8657185439749</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2367.284338333083</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2088.851337586188</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1801.895829456619</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1529.869425042911</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1284.477670376323</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6464,22 +6464,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>605.8694973157604</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>1680.92946356862</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.671098481817</v>
+        <v>2837.977298779171</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>3963.708282215618</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q29" t="n">
         <v>4943.887948785924</v>
@@ -6540,22 +6540,22 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>452.8828383974496</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>809.0580335016147</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>809.0580335016147</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>809.0580335016147</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>809.0580335016147</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>809.0580335016147</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883921</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716171</v>
       </c>
       <c r="D31" t="n">
         <v>614.3171730324584</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D32" t="n">
         <v>1654.847790009657</v>
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6707,19 +6707,19 @@
         <v>2011.671098481817</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6728,22 +6728,22 @@
         <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="33">
@@ -6777,22 +6777,22 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>452.8828383974496</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.588885023173</v>
+        <v>809.0580335016145</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>809.0580335016145</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>809.0580335016145</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>809.0580335016145</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>809.0580335016145</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G35" t="n">
         <v>391.8077842004234</v>
@@ -6941,19 +6941,19 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.16863798718</v>
+        <v>2837.977298779171</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>3963.708282215618</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q35" t="n">
         <v>4943.887948785924</v>
@@ -6974,13 +6974,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7017,19 +7017,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674089</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181462</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7120,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1654.13042623514</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1408.738671568553</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1181.319000882661</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2525.598126712566</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2087.91329888748</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.461159053414</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1219.1440592032</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>791.734274603897</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G38" t="n">
-        <v>390.7940882186507</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.1215786533568</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
-        <v>102.1215786533568</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.3762661062747</v>
+        <v>306.120802776629</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.726558064453</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.786524317312</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M38" t="n">
-        <v>2581.936540552486</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N38" t="n">
-        <v>2581.936540552486</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3562.116207122793</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>4390.426081956189</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4936.924867914783</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5106.07893266784</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5022.884703843167</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4803.275121707695</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4544.510464016202</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4182.351158941517</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.95334934404</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3359.268530914841</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2951.440052205984</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>608.2933236446496</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.8368624812919</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>406.7465736278451</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>312.6261589547988</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>229.2423205709604</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.8572308371443</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>102.1215786533568</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>128.1852518138144</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>452.7435767800267</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.44962340575</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.44962340575</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.44962340575</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.44962340575</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.44962340575</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.44962340575</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.188562037826</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>1765.361340132166</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>1701.905902580549</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.72725891115</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>1395.390711911119</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>1196.273193973118</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>1010.950439706312</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>856.083003945192</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>729.5972247244127</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1042.838812224121</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>870.7347456988358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>705.3143978918483</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>671.1514512347638</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>494.9020421880098</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>329.7684122053273</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.3238828871916</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>102.1215786533568</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>189.1498016742058</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>464.3567941015006</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>883.0152137256207</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1342.947618762693</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.654959776497</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2205.772746858437</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2553.728178684938</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2722.369491405429</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2701.409315102292</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2542.625591391778</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2297.203789961723</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2019.228434206318</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1732.730571068238</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1461.16181164602</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1461.16181164602</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1234.199785951618</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2525.598126712567</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2087.91329888748</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.461159053414</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1219.144059203199</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>791.7342746038971</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>390.7940882186506</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H41" t="n">
-        <v>102.1215786533568</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>102.1215786533568</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>537.3762661062747</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1371.726558064453</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2446.786524317312</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M41" t="n">
-        <v>2446.786524317312</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N41" t="n">
-        <v>2581.936540552486</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3562.116207122793</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>4390.426081956189</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4936.924867914783</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5106.07893266784</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5022.884703843167</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4803.275121707695</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4544.510464016202</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4182.351158941518</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.953349344041</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>3359.268530914841</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2951.440052205985</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>608.2933236446496</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>501.8368624812919</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>406.7465736278451</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>312.6261589547988</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>229.2423205709604</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>143.8572308371443</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>102.1215786533568</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>102.1215786533568</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>102.1215786533568</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>782.8550987237342</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L42" t="n">
-        <v>782.8550987237342</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="M42" t="n">
-        <v>782.8550987237342</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="N42" t="n">
-        <v>782.8550987237342</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O42" t="n">
-        <v>1224.62240150009</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P42" t="n">
-        <v>1224.62240150009</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q42" t="n">
-        <v>1765.361340132166</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1765.361340132166</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1701.905902580549</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1571.72725891115</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1395.390711911119</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1196.273193973118</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1010.950439706312</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>856.083003945192</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>729.5972247244127</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1177.976224324809</v>
+        <v>952.756877347711</v>
       </c>
       <c r="C43" t="n">
-        <v>1005.872157799524</v>
+        <v>780.1951658309359</v>
       </c>
       <c r="D43" t="n">
-        <v>840.4518099925365</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E43" t="n">
-        <v>671.1514512347636</v>
+        <v>444.559169283196</v>
       </c>
       <c r="F43" t="n">
-        <v>494.9020421880097</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G43" t="n">
-        <v>329.7684122053272</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H43" t="n">
-        <v>190.3238828871916</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I43" t="n">
-        <v>102.1215786533568</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>189.1498016742059</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>464.3567941015007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>883.0152137256209</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1342.947618762693</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.654959776497</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2205.772746858437</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2553.728178684938</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2722.369491405429</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2722.369491405429</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2563.585767694917</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2318.163966264862</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2040.188610509457</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1921.441119116527</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1649.872359694309</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1404.938250019211</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1177.976224324809</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2525.598126712566</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2087.91329888748</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1652.461159053415</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1219.144059203199</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>791.7342746038962</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>390.7940882186506</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>102.1215786533568</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>102.1215786533568</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>537.3762661062746</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1371.726558064453</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2446.786524317312</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2581.936540552485</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="N44" t="n">
-        <v>2581.936540552485</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="O44" t="n">
-        <v>3562.116207122792</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4390.426081956188</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4936.924867914782</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>5106.078932667839</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>5022.884703843166</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4803.275121707694</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4544.510464016201</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4182.351158941517</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.953349344041</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3359.268530914841</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2951.440052205984</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>608.2933236446496</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>501.8368624812919</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>406.7465736278451</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>312.6261589547988</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>229.2423205709604</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>143.8572308371443</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>102.1215786533568</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>128.1852518138144</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>452.7435767800267</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K45" t="n">
-        <v>1107.44962340575</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1107.44962340575</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1107.44962340575</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1107.44962340575</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1107.44962340575</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1107.44962340575</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1648.188562037826</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1765.361340132166</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1701.905902580549</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1571.72725891115</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1395.390711911119</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1196.273193973118</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1010.950439706312</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>856.083003945192</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>729.5972247244127</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1075.880058304429</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>903.7759917791434</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>738.3556439721556</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>569.0552852143828</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>494.9020421880097</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>329.7684122053272</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>190.3238828871916</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>102.1215786533568</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>189.1498016742059</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>464.3567941015007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>883.0152137256209</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1342.947618762693</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.654959776497</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2205.772746858438</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2553.728178684939</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2722.36949140543</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2701.409315102292</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2542.625591391778</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2297.203789961723</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2297.203789961723</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>2010.705926823644</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1739.137167401425</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1494.203057726328</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1267.241032031926</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>236.2898988798406</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>565.7897837222249</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>583.9724996756217</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>583.9724996756217</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>77.34673934026068</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,16 +8137,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>204.0843468947432</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>203.2851159259061</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>236.2898988798406</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8231,10 +8231,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,13 +8295,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>409.401749030468</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>407.152590549595</v>
+        <v>316.389926674475</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -8532,13 +8532,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,25 +8608,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>239.122532279504</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8687,25 +8687,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>999.4997461039137</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>415.9276433496045</v>
       </c>
       <c r="N11" t="n">
-        <v>805.5020720702942</v>
+        <v>1002.017323901523</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8930,13 +8930,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M14" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9006,22 +9006,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>92.22506899525706</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -9243,10 +9243,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>92.22506899525706</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -9480,10 +9480,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9498,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9644,16 +9644,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>980.0845558810993</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>583.0591140826364</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9948,10 +9948,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9963,13 +9963,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10112,25 +10112,25 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>583.0591140826364</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10188,10 +10188,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>301.5463146682409</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10355,22 +10355,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>583.0591140826364</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,10 +10425,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>301.5463146682411</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10589,10 +10589,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>395.0015281256929</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -10601,10 +10601,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697543</v>
@@ -10665,22 +10665,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10820,19 +10820,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>136.5151679143178</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11063,13 +11063,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N41" t="n">
-        <v>136.5151679143178</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11133,16 +11133,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,16 +11151,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>446.2295987639959</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,13 +11303,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>136.5151679143169</v>
+        <v>1133.488385918382</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11373,10 +11373,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>301.5463146682411</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>117.3486882856731</v>
       </c>
       <c r="C11" t="n">
-        <v>424.3777671562209</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>120.4463752142719</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.592177662726</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>56.52943299418996</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>175.9682474305293</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627246</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>22.23190701434635</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,10 +24175,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>120.4463752142722</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>122.4480280049976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24649,10 +24649,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T28" t="n">
-        <v>52.94985625022204</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>3.146865729424327</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>18.31929241554613</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>133.7860379796816</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>242.4847685783467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.4473639902223</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>20.75057454010686</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>166.0728680276983</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>101.0752043601765</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26068,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.1956021978507</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>719241.3226258199</v>
+        <v>732341.6459589637</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>719241.3226258199</v>
+        <v>739195.7259180876</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>719241.3226258199</v>
+        <v>739195.7259180876</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>640870.2212031415</v>
+        <v>642001.0576536155</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>766082.9656093705</v>
+        <v>766082.9656093707</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>766297.2785761529</v>
+        <v>766082.9656093706</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>766297.278576153</v>
+        <v>766082.9656093706</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>766297.278576153</v>
+        <v>766082.9656093706</v>
       </c>
     </row>
   </sheetData>
@@ -26320,13 +26320,13 @@
         <v>268073.6599452042</v>
       </c>
       <c r="E2" t="n">
-        <v>220372.5651438292</v>
+        <v>220761.4197373243</v>
       </c>
       <c r="F2" t="n">
         <v>263428.7920686761</v>
       </c>
       <c r="G2" t="n">
-        <v>263428.7920686761</v>
+        <v>263428.7920686762</v>
       </c>
       <c r="H2" t="n">
         <v>263428.7920686761</v>
@@ -26347,13 +26347,13 @@
         <v>263428.7920686761</v>
       </c>
       <c r="N2" t="n">
-        <v>263558.4102665077</v>
+        <v>263428.7920686761</v>
       </c>
       <c r="O2" t="n">
-        <v>263558.4102665077</v>
+        <v>263428.7920686761</v>
       </c>
       <c r="P2" t="n">
-        <v>263558.4102665077</v>
+        <v>263428.7920686761</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>195702.6160087934</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>26990.19963889415</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>171743.2266455766</v>
+        <v>99874.97317730823</v>
       </c>
       <c r="F3" t="n">
-        <v>79872.20474064753</v>
+        <v>79150.85324460977</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>152792.9007051284</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>21501.21939773554</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>143343.1098506395</v>
+        <v>83359.26563805075</v>
       </c>
       <c r="N3" t="n">
-        <v>68212.12920465066</v>
+        <v>67659.41322128719</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>218225.2660325691</v>
+        <v>194781.6603085977</v>
       </c>
       <c r="C4" t="n">
-        <v>218225.2660325691</v>
+        <v>182515.9822733277</v>
       </c>
       <c r="D4" t="n">
-        <v>218225.2660325691</v>
+        <v>182515.9822733277</v>
       </c>
       <c r="E4" t="n">
-        <v>90613.34940614547</v>
+        <v>90773.23962263207</v>
       </c>
       <c r="F4" t="n">
         <v>108317.3178284629</v>
@@ -26439,7 +26439,7 @@
         <v>108317.3178284629</v>
       </c>
       <c r="J4" t="n">
-        <v>108317.317828463</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="K4" t="n">
         <v>108317.3178284629</v>
@@ -26451,13 +26451,13 @@
         <v>108317.3178284629</v>
       </c>
       <c r="N4" t="n">
-        <v>108662.771150181</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="O4" t="n">
-        <v>108662.771150181</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="P4" t="n">
-        <v>108662.771150181</v>
+        <v>108317.3178284629</v>
       </c>
     </row>
     <row r="5">
@@ -26467,28 +26467,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>69133.12798027782</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>60769.58456311795</v>
+        <v>60922.6532932126</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.2386057925</v>
@@ -26497,19 +26497,19 @@
         <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="M5" t="n">
         <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77650.48879577282</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>77650.48879577282</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>77650.48879577281</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-151767.6948842972</v>
+        <v>-191543.7443524647</v>
       </c>
       <c r="C6" t="n">
-        <v>-9576.394224587188</v>
+        <v>-15645.04652877535</v>
       </c>
       <c r="D6" t="n">
-        <v>-9576.394224587239</v>
+        <v>11345.1531101188</v>
       </c>
       <c r="E6" t="n">
-        <v>-102753.5954710108</v>
+        <v>-31046.00755686804</v>
       </c>
       <c r="F6" t="n">
-        <v>-2478.969106226796</v>
+        <v>-1780.841949571715</v>
       </c>
       <c r="G6" t="n">
-        <v>77393.23563442072</v>
+        <v>77370.01129503813</v>
       </c>
       <c r="H6" t="n">
-        <v>77393.23563442066</v>
+        <v>77370.01129503801</v>
       </c>
       <c r="I6" t="n">
-        <v>77393.23563442068</v>
+        <v>77370.01129503807</v>
       </c>
       <c r="J6" t="n">
-        <v>-33621.22971056949</v>
+        <v>-75422.88941009025</v>
       </c>
       <c r="K6" t="n">
-        <v>77393.23563442071</v>
+        <v>55868.79189730249</v>
       </c>
       <c r="L6" t="n">
-        <v>77393.23563442071</v>
+        <v>77370.01129503809</v>
       </c>
       <c r="M6" t="n">
-        <v>-65949.87421621877</v>
+        <v>-5989.254343012629</v>
       </c>
       <c r="N6" t="n">
-        <v>9033.021115903292</v>
+        <v>9710.598073750903</v>
       </c>
       <c r="O6" t="n">
-        <v>77245.15032055388</v>
+        <v>77370.01129503809</v>
       </c>
       <c r="P6" t="n">
-        <v>77245.15032055389</v>
+        <v>77370.01129503809</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4530685415749094</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>583.9724996756219</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>999.4997461039136</v>
+        <v>1002.017323901523</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26823,13 +26823,13 @@
         <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1276.51973316696</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1276.51973316696</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1276.51973316696</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4530685415749094</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>583.9724996756219</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>83.54270693223509</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>575.2038885838092</v>
+        <v>334.5021172936661</v>
       </c>
       <c r="F4" t="n">
-        <v>278.7607572808315</v>
+        <v>276.2431794832223</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>583.9724996756216</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>83.54270693223532</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>575.203888583809</v>
+        <v>334.5021172936661</v>
       </c>
       <c r="N4" t="n">
-        <v>277.0199870630463</v>
+        <v>276.2431794832223</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>583.9724996756219</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>83.54270693223509</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>575.2038885838092</v>
+        <v>334.5021172936661</v>
       </c>
       <c r="N4" t="n">
-        <v>278.7607572808315</v>
+        <v>276.2431794832223</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,16 +27382,16 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>231.2966963619456</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -27445,7 +27445,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>101.7445521115756</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>1.672313608597563</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,10 +27585,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>8.259553180761543</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,10 +27597,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,16 +27616,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -27679,10 +27679,10 @@
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>369.8422500230731</v>
       </c>
       <c r="Y5" t="n">
-        <v>179.8232350153226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.7486424396546</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>48.19697732171633</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -27789,10 +27789,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>339.3090795914213</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>114.1405214419547</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28017,10 +28017,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>166.3808880620549</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>81.78272691405263</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-3.201312064710532e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28746,7 +28746,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>3.069544618483633e-12</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.4530685415749094</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4530685415749094</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4530685415749094</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4530685415749094</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4530685415749094</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4530685415749094</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4530685415749094</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0.4530685415749094</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0.4530685415749094</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4530685415749094</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4530685415749094</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0.4530685415749094</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.4530685415749094</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.4530685415749094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.4530685415749094</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4530685415749094</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4530685415749094</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4530685415749094</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4530685415749094</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4530685415749094</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4530685415749094</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.4530685415749094</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4530685415749094</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.4530685415749094</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.4530685415749094</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.4530685415749094</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0.4530685415749094</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0.4530685415749094</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0.4530685415749094</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.4530685415749094</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.4530685415749094</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0.4530685415749094</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.4530685415749094</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0.4530685415749094</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4530685415749094</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0.4530685415749094</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.4530685415749094</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.4530685415749094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.4530685415749737</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>236.2898988798406</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>565.7897837222249</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>583.9724996756217</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>583.9724996756217</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>77.34673934026068</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34857,19 +34857,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>204.0843468947432</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>203.2851159259061</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>236.2898988798406</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34951,10 +34951,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,13 +35015,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>409.401749030468</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>407.152590549595</v>
+        <v>316.389926674475</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,13 +35252,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>239.122532279504</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,25 +35407,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473919</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>999.4997461039137</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>415.9276433496045</v>
       </c>
       <c r="N11" t="n">
-        <v>805.5020720702942</v>
+        <v>1002.017323901523</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35486,10 +35486,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,7 +35580,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35650,13 +35650,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M14" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35720,28 +35720,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,7 +35811,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645591</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35890,7 +35890,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>92.22506899525706</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35981,7 +35981,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960996</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512956</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36127,7 +36127,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>92.22506899525706</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36218,7 +36218,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36364,16 +36364,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>980.0845558810993</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157523</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080413</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,7 +36528,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>583.0591140826364</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36683,13 +36683,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36832,25 +36832,25 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>583.0591140826364</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>170.862691669754</v>
@@ -36908,10 +36908,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36926,7 +36926,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>301.5463146682409</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37002,7 +37002,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37075,22 +37075,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>583.0591140826364</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37163,7 +37163,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>301.5463146682411</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37309,10 +37309,10 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>395.0015281256929</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -37321,10 +37321,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>170.862691669754</v>
@@ -37385,22 +37385,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473919</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>136.5151679143178</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37637,7 +37637,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.90729598065558</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
-        <v>277.9868610376715</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.8872925496163</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.5781869061336</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
-        <v>447.1791323371756</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>424.3614010928693</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>351.4701331580818</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>170.3447603237287</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N41" t="n">
-        <v>136.5151679143178</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37871,16 +37871,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>446.2295987639959</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.90729598065563</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
-        <v>277.9868610376715</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.8872925496165</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.5781869061336</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>447.1791323371756</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>424.3614010928691</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>351.4701331580818</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>170.3447603237287</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,19 +38017,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>136.5151679143169</v>
+        <v>1133.488385918382</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38093,10 +38093,10 @@
         <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>301.5463146682411</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.90729598065565</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
-        <v>277.9868610376715</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.8872925496165</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.5781869061336</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>447.1791323371756</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>424.3614010928695</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>351.4701331580818</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>170.3447603237287</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
